--- a/data/uMax/raw_data/Task2_48hr_48well_discon_170829_134555/Task2_48hr_48well_discon_170829_134555_wellNames.xlsx
+++ b/data/uMax/raw_data/Task2_48hr_48well_discon_170829_134555/Task2_48hr_48well_discon_170829_134555_wellNames.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -558,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D3" sqref="D2:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -592,7 +592,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -847,7 +847,7 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
@@ -983,7 +983,7 @@
         <v>2</v>
       </c>
       <c r="D25">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
@@ -1119,7 +1119,7 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>
@@ -1255,7 +1255,7 @@
         <v>2</v>
       </c>
       <c r="D41">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E41" t="b">
         <v>1</v>
@@ -1272,7 +1272,7 @@
         <v>3</v>
       </c>
       <c r="D42">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E42" t="b">
         <v>1</v>
@@ -1289,7 +1289,7 @@
         <v>3</v>
       </c>
       <c r="D43">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E43" t="b">
         <v>1</v>
@@ -1306,7 +1306,7 @@
         <v>3</v>
       </c>
       <c r="D44">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E44" t="b">
         <v>1</v>
@@ -1340,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="D46">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E46" t="b">
         <v>1</v>
